--- a/TDD_examples/CASE_3_HTS_HVDC/conductor_1_coupling.xlsx
+++ b/TDD_examples/CASE_3_HTS_HVDC/conductor_1_coupling.xlsx
@@ -1,30 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/daniele_placido_polito_it/Documents/OPENSC2/Description_of_Components/HTS_best_paths/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniele.placido\3D Objects\OPENSC2\TDD_examples\CASE_3_HTS_HVDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="203" documentId="13_ncr:1_{76561CA3-E0AF-4EC9-BADE-7B4233765AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1EAB8B9-DEC8-4F10-B770-7A356B73D179}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72986D2-6E60-400E-AF4B-28DB1824D6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="663" firstSheet="1" activeTab="8" xr2:uid="{91AAA46A-E77A-4CF9-A2A6-D526EB86D7B9}"/>
+    <workbookView xWindow="4500" yWindow="3510" windowWidth="21600" windowHeight="11385" tabRatio="663" firstSheet="5" activeTab="7" xr2:uid="{91AAA46A-E77A-4CF9-A2A6-D526EB86D7B9}"/>
   </bookViews>
   <sheets>
     <sheet name="contact_perimeter_flag" sheetId="8" r:id="rId1"/>
     <sheet name="contact_perimeter" sheetId="1" r:id="rId2"/>
     <sheet name="HTC_choice" sheetId="4" r:id="rId3"/>
     <sheet name="contact_HTC" sheetId="2" r:id="rId4"/>
-    <sheet name="HTC_multiplier" sheetId="5" r:id="rId5"/>
-    <sheet name="open_perimeter_fract" sheetId="3" r:id="rId6"/>
-    <sheet name="interf_thickness" sheetId="7" r:id="rId7"/>
-    <sheet name="trans_transp_multiplier" sheetId="6" r:id="rId8"/>
-    <sheet name="view_factors" sheetId="9" r:id="rId9"/>
+    <sheet name="thermal_contact_resistance" sheetId="10" r:id="rId5"/>
+    <sheet name="HTC_multiplier" sheetId="5" r:id="rId6"/>
+    <sheet name="electric_conductance_mode" sheetId="11" r:id="rId7"/>
+    <sheet name="electric_conductance" sheetId="12" r:id="rId8"/>
+    <sheet name="open_perimeter_fract" sheetId="3" r:id="rId9"/>
+    <sheet name="interf_thickness" sheetId="7" r:id="rId10"/>
+    <sheet name="trans_transp_multiplier" sheetId="6" r:id="rId11"/>
+    <sheet name="view_factors" sheetId="9" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>[%] Fraction of the contact perimeter between fluid elements which is actually open</t>
   </si>
@@ -74,6 +77,15 @@
   </si>
   <si>
     <t>Environment</t>
+  </si>
+  <si>
+    <t>[m2K/W] thermal contact resistance between soldi component, should be &gt;= 0; used if flag HTC_choice is 1</t>
+  </si>
+  <si>
+    <t>Flag to specify the kind of electric conductance: 1 conductance per unit length (the contact is along a line as for tow cilinder); 2 = actual conductance between components.</t>
+  </si>
+  <si>
+    <t>[S/m] Value of the electric_conductance</t>
   </si>
 </sst>
 </file>
@@ -149,7 +161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -160,14 +172,8 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
@@ -179,23 +185,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -974,140 +969,140 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.90625" style="1"/>
+    <col min="6" max="11" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="str">
+      <c r="C2" s="4" t="str">
         <f>[1]CHAN!$E$3</f>
         <v>CHAN_1</v>
       </c>
-      <c r="D2" s="5" t="str">
+      <c r="D2" s="4" t="str">
         <f>[1]CHAN!F$3</f>
         <v>CHAN_2</v>
       </c>
-      <c r="E2" s="5" t="str">
+      <c r="E2" s="4" t="str">
         <f>[1]STR_STAB!$E$3</f>
         <v>STR_STAB_1</v>
       </c>
-      <c r="F2" s="5" t="str">
+      <c r="F2" s="4" t="str">
         <f>[1]Z_JACKET!E$3</f>
         <v>Z_JACKET_1</v>
       </c>
-      <c r="G2" s="5" t="str">
+      <c r="G2" s="4" t="str">
         <f>[1]Z_JACKET!F$3</f>
         <v>Z_JACKET_2</v>
       </c>
-      <c r="H2" s="5" t="str">
+      <c r="H2" s="4" t="str">
         <f>[1]Z_JACKET!G$3</f>
         <v>Z_JACKET_3</v>
       </c>
-      <c r="I2" s="5" t="str">
+      <c r="I2" s="4" t="str">
         <f>[1]Z_JACKET!H$3</f>
         <v>Z_JACKET_4</v>
       </c>
-      <c r="J2" s="5" t="str">
+      <c r="J2" s="4" t="str">
         <f>[1]Z_JACKET!I$3</f>
         <v>Z_JACKET_5</v>
       </c>
-      <c r="K2" s="5" t="str">
+      <c r="K2" s="4" t="str">
         <f>[1]Z_JACKET!J$3</f>
         <v>Z_JACKET_6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="str">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="str">
         <f>B2</f>
         <v>Environment</v>
       </c>
-      <c r="B3" s="11">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
-      <c r="F3" s="12">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11">
-        <v>0</v>
-      </c>
-      <c r="K3" s="11">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="str">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="str">
         <f>C2</f>
         <v>CHAN_1</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
         <v>1</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>1</v>
       </c>
-      <c r="G4" s="11">
-        <v>0</v>
-      </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11">
-        <v>0</v>
-      </c>
-      <c r="J4" s="11">
-        <v>0</v>
-      </c>
-      <c r="K4" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="str">
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="str">
         <f>D2</f>
         <v>CHAN_2</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5" s="1">
@@ -1116,34 +1111,34 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0</v>
-      </c>
-      <c r="H5" s="11">
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="1">
         <v>1</v>
       </c>
-      <c r="J5" s="11">
-        <v>0</v>
-      </c>
-      <c r="K5" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="str">
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="str">
         <f>E2</f>
         <v>STR_STAB_1</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" s="1">
@@ -1155,31 +1150,31 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6" s="11">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11">
-        <v>0</v>
-      </c>
-      <c r="K6" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="str">
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="str">
         <f>F2</f>
         <v>Z_JACKET_1</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="1">
         <v>0</v>
       </c>
       <c r="C7" s="1">
@@ -1194,199 +1189,199 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>G2</f>
         <v>Z_JACKET_2</v>
       </c>
-      <c r="B8" s="11">
-        <v>0</v>
-      </c>
-      <c r="C8" s="11">
-        <v>0</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="11">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11">
-        <v>0</v>
-      </c>
-      <c r="K8" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f>H2</f>
         <v>Z_JACKET_3</v>
       </c>
-      <c r="B9" s="11">
-        <v>0</v>
-      </c>
-      <c r="C9" s="11">
-        <v>0</v>
-      </c>
-      <c r="D9" s="11">
-        <v>0</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0</v>
-      </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11">
-        <v>0</v>
-      </c>
-      <c r="K9" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f>I2</f>
         <v>Z_JACKET_4</v>
       </c>
-      <c r="B10" s="11">
-        <v>0</v>
-      </c>
-      <c r="C10" s="11">
-        <v>0</v>
-      </c>
-      <c r="D10" s="11">
-        <v>0</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
         <v>1</v>
       </c>
-      <c r="K10" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>J2</f>
         <v>Z_JACKET_5</v>
       </c>
-      <c r="B11" s="11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="11">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="str">
         <f>K2</f>
         <v>Z_JACKET_6</v>
       </c>
-      <c r="B12" s="11">
-        <v>0</v>
-      </c>
-      <c r="C12" s="11">
-        <v>0</v>
-      </c>
-      <c r="D12" s="11">
-        <v>0</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11">
-        <v>0</v>
-      </c>
-      <c r="I12" s="11">
-        <v>0</v>
-      </c>
-      <c r="J12" s="11">
-        <v>0</v>
-      </c>
-      <c r="K12" s="11">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1407,6 +1402,1382 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182F8F7F-A8D7-4239-AF85-1CCD06F5862A}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="4" t="str">
+        <f>contact_perimeter_flag!B2</f>
+        <v>Environment</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f>contact_perimeter_flag!C2</f>
+        <v>CHAN_1</v>
+      </c>
+      <c r="D2" s="4" t="str">
+        <f>contact_perimeter_flag!D2</f>
+        <v>CHAN_2</v>
+      </c>
+      <c r="E2" s="4" t="str">
+        <f>contact_perimeter_flag!E2</f>
+        <v>STR_STAB_1</v>
+      </c>
+      <c r="F2" s="4" t="str">
+        <f>contact_perimeter_flag!F2</f>
+        <v>Z_JACKET_1</v>
+      </c>
+      <c r="G2" s="9" t="str">
+        <f>contact_perimeter_flag!G2</f>
+        <v>Z_JACKET_2</v>
+      </c>
+      <c r="H2" s="9" t="str">
+        <f>contact_perimeter_flag!H2</f>
+        <v>Z_JACKET_3</v>
+      </c>
+      <c r="I2" s="9" t="str">
+        <f>contact_perimeter_flag!I2</f>
+        <v>Z_JACKET_4</v>
+      </c>
+      <c r="J2" s="9" t="str">
+        <f>contact_perimeter_flag!J2</f>
+        <v>Z_JACKET_5</v>
+      </c>
+      <c r="K2" s="9" t="str">
+        <f>contact_perimeter_flag!K2</f>
+        <v>Z_JACKET_6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="str">
+        <f>B2</f>
+        <v>Environment</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="str">
+        <f>C2</f>
+        <v>CHAN_1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="str">
+        <f>D2</f>
+        <v>CHAN_2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="str">
+        <f>E2</f>
+        <v>STR_STAB_1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="str">
+        <f>F2</f>
+        <v>Z_JACKET_1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="str">
+        <f>contact_perimeter_flag!A8</f>
+        <v>Z_JACKET_2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="str">
+        <f>contact_perimeter_flag!A9</f>
+        <v>Z_JACKET_3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="str">
+        <f>contact_perimeter_flag!A10</f>
+        <v>Z_JACKET_4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="str">
+        <f>contact_perimeter_flag!A11</f>
+        <v>Z_JACKET_5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="str">
+        <f>contact_perimeter_flag!A12</f>
+        <v>Z_JACKET_6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{11073E0C-B0B4-4CCC-ADAF-F7C7AD75C766}">
+            <xm:f>contact_perimeter_flag!$D$4=0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="2" id="{D8D42210-C82D-40ED-B579-6A74980D2860}">
+            <xm:f>contact_perimeter_flag!$D$4=1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D4</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF3B1F8-15BE-471B-8C90-C91254905B72}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="4" t="str">
+        <f>contact_perimeter_flag!B2</f>
+        <v>Environment</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f>contact_perimeter_flag!C2</f>
+        <v>CHAN_1</v>
+      </c>
+      <c r="D2" s="4" t="str">
+        <f>contact_perimeter_flag!D2</f>
+        <v>CHAN_2</v>
+      </c>
+      <c r="E2" s="4" t="str">
+        <f>contact_perimeter_flag!E2</f>
+        <v>STR_STAB_1</v>
+      </c>
+      <c r="F2" s="4" t="str">
+        <f>contact_perimeter_flag!F2</f>
+        <v>Z_JACKET_1</v>
+      </c>
+      <c r="G2" s="9" t="str">
+        <f>contact_perimeter_flag!G2</f>
+        <v>Z_JACKET_2</v>
+      </c>
+      <c r="H2" s="9" t="str">
+        <f>contact_perimeter_flag!H2</f>
+        <v>Z_JACKET_3</v>
+      </c>
+      <c r="I2" s="9" t="str">
+        <f>contact_perimeter_flag!I2</f>
+        <v>Z_JACKET_4</v>
+      </c>
+      <c r="J2" s="9" t="str">
+        <f>contact_perimeter_flag!J2</f>
+        <v>Z_JACKET_5</v>
+      </c>
+      <c r="K2" s="9" t="str">
+        <f>contact_perimeter_flag!K2</f>
+        <v>Z_JACKET_6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="str">
+        <f>B2</f>
+        <v>Environment</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="str">
+        <f>C2</f>
+        <v>CHAN_1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="str">
+        <f>D2</f>
+        <v>CHAN_2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="str">
+        <f>E2</f>
+        <v>STR_STAB_1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="str">
+        <f>F2</f>
+        <v>Z_JACKET_1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="str">
+        <f>contact_perimeter_flag!A8</f>
+        <v>Z_JACKET_2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="str">
+        <f>contact_perimeter_flag!A9</f>
+        <v>Z_JACKET_3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="str">
+        <f>contact_perimeter_flag!A10</f>
+        <v>Z_JACKET_4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="str">
+        <f>contact_perimeter_flag!A11</f>
+        <v>Z_JACKET_5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="str">
+        <f>contact_perimeter_flag!A12</f>
+        <v>Z_JACKET_6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{375370F1-6A9D-44F9-97E7-5F19EF16D901}">
+            <xm:f>contact_perimeter_flag!$D$4=0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF00"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="2" id="{D8851FDB-4F41-4BDA-A3BC-4D0318F65BF8}">
+            <xm:f>contact_perimeter_flag!$D$4=1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D4</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C628F5-9BDA-4746-9BD5-872CA60F8FA3}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="str">
+        <f>contact_perimeter_flag!B2</f>
+        <v>Environment</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f>contact_perimeter_flag!C2</f>
+        <v>CHAN_1</v>
+      </c>
+      <c r="D2" s="4" t="str">
+        <f>contact_perimeter_flag!D2</f>
+        <v>CHAN_2</v>
+      </c>
+      <c r="E2" s="4" t="str">
+        <f>contact_perimeter_flag!E2</f>
+        <v>STR_STAB_1</v>
+      </c>
+      <c r="F2" s="4" t="str">
+        <f>contact_perimeter_flag!F2</f>
+        <v>Z_JACKET_1</v>
+      </c>
+      <c r="G2" s="4" t="str">
+        <f>contact_perimeter_flag!G2</f>
+        <v>Z_JACKET_2</v>
+      </c>
+      <c r="H2" s="4" t="str">
+        <f>contact_perimeter_flag!H2</f>
+        <v>Z_JACKET_3</v>
+      </c>
+      <c r="I2" s="4" t="str">
+        <f>contact_perimeter_flag!I2</f>
+        <v>Z_JACKET_4</v>
+      </c>
+      <c r="J2" s="4" t="str">
+        <f>contact_perimeter_flag!J2</f>
+        <v>Z_JACKET_5</v>
+      </c>
+      <c r="K2" s="4" t="str">
+        <f>contact_perimeter_flag!K2</f>
+        <v>Z_JACKET_6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="str">
+        <f>B2</f>
+        <v>Environment</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="str">
+        <f>C2</f>
+        <v>CHAN_1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="str">
+        <f>D2</f>
+        <v>CHAN_2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="str">
+        <f>E2</f>
+        <v>STR_STAB_1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="str">
+        <f>F2</f>
+        <v>Z_JACKET_1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="str">
+        <f>contact_perimeter_flag!A8</f>
+        <v>Z_JACKET_2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="str">
+        <f>contact_perimeter_flag!A9</f>
+        <v>Z_JACKET_3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="str">
+        <f>contact_perimeter_flag!A10</f>
+        <v>Z_JACKET_4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="str">
+        <f>contact_perimeter_flag!A11</f>
+        <v>Z_JACKET_5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="str">
+        <f>contact_perimeter_flag!A12</f>
+        <v>Z_JACKET_6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE57BE0-CB95-4186-8582-DA069D805E4E}">
   <dimension ref="A1:K12"/>
@@ -1415,81 +2786,81 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.90625" style="1"/>
+    <col min="6" max="11" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="str">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="str">
         <f>contact_perimeter_flag!B2</f>
         <v>Environment</v>
       </c>
-      <c r="C2" s="5" t="str">
+      <c r="C2" s="4" t="str">
         <f>contact_perimeter_flag!C2</f>
         <v>CHAN_1</v>
       </c>
-      <c r="D2" s="5" t="str">
+      <c r="D2" s="4" t="str">
         <f>contact_perimeter_flag!D2</f>
         <v>CHAN_2</v>
       </c>
-      <c r="E2" s="5" t="str">
+      <c r="E2" s="4" t="str">
         <f>contact_perimeter_flag!E2</f>
         <v>STR_STAB_1</v>
       </c>
-      <c r="F2" s="5" t="str">
+      <c r="F2" s="4" t="str">
         <f>contact_perimeter_flag!F2</f>
         <v>Z_JACKET_1</v>
       </c>
-      <c r="G2" s="14" t="str">
+      <c r="G2" s="9" t="str">
         <f>contact_perimeter_flag!G2</f>
         <v>Z_JACKET_2</v>
       </c>
-      <c r="H2" s="14" t="str">
+      <c r="H2" s="9" t="str">
         <f>contact_perimeter_flag!H2</f>
         <v>Z_JACKET_3</v>
       </c>
-      <c r="I2" s="14" t="str">
+      <c r="I2" s="9" t="str">
         <f>contact_perimeter_flag!I2</f>
         <v>Z_JACKET_4</v>
       </c>
-      <c r="J2" s="14" t="str">
+      <c r="J2" s="9" t="str">
         <f>contact_perimeter_flag!J2</f>
         <v>Z_JACKET_5</v>
       </c>
-      <c r="K2" s="14" t="str">
+      <c r="K2" s="9" t="str">
         <f>contact_perimeter_flag!K2</f>
         <v>Z_JACKET_6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="str">
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="str">
         <f>B2</f>
         <v>Environment</v>
       </c>
-      <c r="B3" s="11">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1">
@@ -1509,25 +2880,25 @@
         <v>0.58433623356770148</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="str">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="str">
         <f>C2</f>
         <v>CHAN_1</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
         <f>PI()*0.01</f>
         <v>3.1415926535897934E-2</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <f>PI()*0.02</f>
         <v>6.2831853071795868E-2</v>
       </c>
@@ -1547,12 +2918,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="str">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="str">
         <f>D2</f>
         <v>CHAN_2</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5" s="1">
@@ -1561,20 +2932,20 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
         <v>0</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="10">
         <f>PI()*0.108</f>
         <v>0.33929200658769765</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="10">
         <f>PI()*0.128</f>
         <v>0.40212385965949354</v>
       </c>
@@ -1585,12 +2956,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="str">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="str">
         <f>E2</f>
         <v>STR_STAB_1</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" s="1">
@@ -1602,7 +2973,7 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>0</v>
       </c>
       <c r="G6" s="1">
@@ -1621,12 +2992,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="str">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="str">
         <f>F2</f>
         <v>Z_JACKET_1</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="1">
         <v>0</v>
       </c>
       <c r="C7" s="1">
@@ -1643,7 +3014,7 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="10">
         <f>PI()*0.024</f>
         <v>7.5398223686155036E-2</v>
       </c>
@@ -1660,12 +3031,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="str">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="str">
         <f>contact_perimeter_flag!A8</f>
         <v>Z_JACKET_2</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1">
@@ -1685,7 +3056,7 @@
       <c r="G8" s="1">
         <v>0</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="10">
         <f>PI()*0.048</f>
         <v>0.15079644737231007</v>
       </c>
@@ -1699,12 +3070,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="str">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="str">
         <f>contact_perimeter_flag!A9</f>
         <v>Z_JACKET_3</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="1">
         <v>2</v>
       </c>
       <c r="C9" s="1">
@@ -1727,7 +3098,7 @@
       <c r="H9" s="1">
         <v>0</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
@@ -1737,12 +3108,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="str">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="str">
         <f>contact_perimeter_flag!A10</f>
         <v>Z_JACKET_4</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="1">
         <v>3</v>
       </c>
       <c r="C10" s="1">
@@ -1768,7 +3139,7 @@
       <c r="I10" s="1">
         <v>0</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="10">
         <f>PI()*0.132</f>
         <v>0.41469023027385271</v>
       </c>
@@ -1776,12 +3147,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="str">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="str">
         <f>contact_perimeter_flag!A11</f>
         <v>Z_JACKET_5</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="1">
         <v>4</v>
       </c>
       <c r="C11" s="1">
@@ -1810,17 +3181,17 @@
       <c r="J11" s="1">
         <v>0</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="10">
         <f>PI()*0.156</f>
         <v>0.49008845396000772</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="str">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="str">
         <f>contact_perimeter_flag!A12</f>
         <v>Z_JACKET_6</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="1">
         <v>5</v>
       </c>
       <c r="C12" s="1">
@@ -2012,180 +3383,180 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.90625" style="1"/>
+    <col min="6" max="11" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="103.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="18" t="s">
+    <row r="1" spans="1:11" ht="103.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="5" t="str">
+      <c r="B2" s="4" t="str">
         <f>contact_perimeter_flag!B2</f>
         <v>Environment</v>
       </c>
-      <c r="C2" s="5" t="str">
+      <c r="C2" s="4" t="str">
         <f>contact_perimeter_flag!C2</f>
         <v>CHAN_1</v>
       </c>
-      <c r="D2" s="5" t="str">
+      <c r="D2" s="4" t="str">
         <f>contact_perimeter_flag!D2</f>
         <v>CHAN_2</v>
       </c>
-      <c r="E2" s="5" t="str">
+      <c r="E2" s="4" t="str">
         <f>contact_perimeter_flag!E2</f>
         <v>STR_STAB_1</v>
       </c>
-      <c r="F2" s="5" t="str">
+      <c r="F2" s="4" t="str">
         <f>contact_perimeter_flag!F2</f>
         <v>Z_JACKET_1</v>
       </c>
-      <c r="G2" s="14" t="str">
+      <c r="G2" s="9" t="str">
         <f>contact_perimeter_flag!G2</f>
         <v>Z_JACKET_2</v>
       </c>
-      <c r="H2" s="14" t="str">
+      <c r="H2" s="9" t="str">
         <f>contact_perimeter_flag!H2</f>
         <v>Z_JACKET_3</v>
       </c>
-      <c r="I2" s="14" t="str">
+      <c r="I2" s="9" t="str">
         <f>contact_perimeter_flag!I2</f>
         <v>Z_JACKET_4</v>
       </c>
-      <c r="J2" s="14" t="str">
+      <c r="J2" s="9" t="str">
         <f>contact_perimeter_flag!J2</f>
         <v>Z_JACKET_5</v>
       </c>
-      <c r="K2" s="14" t="str">
+      <c r="K2" s="9" t="str">
         <f>contact_perimeter_flag!K2</f>
         <v>Z_JACKET_6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="str">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="str">
         <f>B2</f>
         <v>Environment</v>
       </c>
-      <c r="B3" s="11">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="16">
-        <v>0</v>
-      </c>
-      <c r="H3" s="16">
-        <v>0</v>
-      </c>
-      <c r="I3" s="16">
-        <v>0</v>
-      </c>
-      <c r="J3" s="16">
-        <v>0</v>
-      </c>
-      <c r="K3" s="16">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
         <v>-4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="str">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="str">
         <f>C2</f>
         <v>CHAN_1</v>
       </c>
-      <c r="B4" s="11">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
         <v>2</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>2</v>
       </c>
-      <c r="G4" s="16">
-        <v>0</v>
-      </c>
-      <c r="H4" s="16">
-        <v>0</v>
-      </c>
-      <c r="I4" s="16">
-        <v>0</v>
-      </c>
-      <c r="J4" s="16">
-        <v>0</v>
-      </c>
-      <c r="K4" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="str">
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="str">
         <f>D2</f>
         <v>CHAN_2</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="16">
-        <v>0</v>
-      </c>
-      <c r="H5" s="16">
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
         <v>2</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="1">
         <v>2</v>
       </c>
-      <c r="J5" s="16">
-        <v>0</v>
-      </c>
-      <c r="K5" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="str">
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="str">
         <f>E2</f>
         <v>STR_STAB_1</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" s="1">
@@ -2194,34 +3565,34 @@
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="16">
-        <v>0</v>
-      </c>
-      <c r="H6" s="16">
-        <v>0</v>
-      </c>
-      <c r="I6" s="16">
-        <v>0</v>
-      </c>
-      <c r="J6" s="16">
-        <v>0</v>
-      </c>
-      <c r="K6" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="str">
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="str">
         <f>F2</f>
         <v>Z_JACKET_1</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="1">
         <v>0</v>
       </c>
       <c r="C7" s="1">
@@ -2235,31 +3606,31 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="16">
-        <v>0</v>
-      </c>
-      <c r="G7" s="16">
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
         <v>3</v>
       </c>
-      <c r="H7" s="16">
-        <v>0</v>
-      </c>
-      <c r="I7" s="16">
-        <v>0</v>
-      </c>
-      <c r="J7" s="16">
-        <v>0</v>
-      </c>
-      <c r="K7" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="str">
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="str">
         <f>contact_perimeter_flag!A8</f>
         <v>Z_JACKET_2</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="1">
         <v>0</v>
       </c>
       <c r="C8" s="1">
@@ -2273,31 +3644,31 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="16">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16">
-        <v>0</v>
-      </c>
-      <c r="H8" s="16">
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
         <v>-1</v>
       </c>
-      <c r="I8" s="16">
-        <v>0</v>
-      </c>
-      <c r="J8" s="16">
-        <v>0</v>
-      </c>
-      <c r="K8" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="str">
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="str">
         <f>contact_perimeter_flag!A9</f>
         <v>Z_JACKET_3</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="1">
         <v>0</v>
       </c>
       <c r="C9" s="1">
@@ -2311,31 +3682,31 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="16">
-        <v>0</v>
-      </c>
-      <c r="G9" s="16">
-        <v>0</v>
-      </c>
-      <c r="H9" s="16">
-        <v>0</v>
-      </c>
-      <c r="I9" s="16">
-        <v>0</v>
-      </c>
-      <c r="J9" s="16">
-        <v>0</v>
-      </c>
-      <c r="K9" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="str">
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="str">
         <f>contact_perimeter_flag!A10</f>
         <v>Z_JACKET_4</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="1">
         <v>0</v>
       </c>
       <c r="C10" s="1">
@@ -2349,31 +3720,31 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="16">
-        <v>0</v>
-      </c>
-      <c r="G10" s="16">
-        <v>0</v>
-      </c>
-      <c r="H10" s="16">
-        <v>0</v>
-      </c>
-      <c r="I10" s="16">
-        <v>0</v>
-      </c>
-      <c r="J10" s="16">
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
         <v>3</v>
       </c>
-      <c r="K10" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="str">
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="str">
         <f>contact_perimeter_flag!A11</f>
         <v>Z_JACKET_5</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="1">
         <v>0</v>
       </c>
       <c r="C11" s="1">
@@ -2387,31 +3758,31 @@
       <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="16">
-        <v>0</v>
-      </c>
-      <c r="G11" s="16">
-        <v>0</v>
-      </c>
-      <c r="H11" s="16">
-        <v>0</v>
-      </c>
-      <c r="I11" s="16">
-        <v>0</v>
-      </c>
-      <c r="J11" s="16">
-        <v>0</v>
-      </c>
-      <c r="K11" s="16">
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="str">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="str">
         <f>contact_perimeter_flag!A12</f>
         <v>Z_JACKET_6</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="1">
         <v>0</v>
       </c>
       <c r="C12" s="1">
@@ -2425,22 +3796,22 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="16">
-        <v>0</v>
-      </c>
-      <c r="G12" s="16">
-        <v>0</v>
-      </c>
-      <c r="H12" s="16">
-        <v>0</v>
-      </c>
-      <c r="I12" s="16">
-        <v>0</v>
-      </c>
-      <c r="J12" s="16">
-        <v>0</v>
-      </c>
-      <c r="K12" s="16">
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2606,81 +3977,81 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.90625" style="1"/>
+    <col min="6" max="11" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="5" t="str">
+      <c r="B2" s="4" t="str">
         <f>contact_perimeter_flag!B2</f>
         <v>Environment</v>
       </c>
-      <c r="C2" s="5" t="str">
+      <c r="C2" s="4" t="str">
         <f>contact_perimeter_flag!C2</f>
         <v>CHAN_1</v>
       </c>
-      <c r="D2" s="5" t="str">
+      <c r="D2" s="4" t="str">
         <f>contact_perimeter_flag!D2</f>
         <v>CHAN_2</v>
       </c>
-      <c r="E2" s="5" t="str">
+      <c r="E2" s="4" t="str">
         <f>contact_perimeter_flag!E2</f>
         <v>STR_STAB_1</v>
       </c>
-      <c r="F2" s="5" t="str">
+      <c r="F2" s="4" t="str">
         <f>contact_perimeter_flag!F2</f>
         <v>Z_JACKET_1</v>
       </c>
-      <c r="G2" s="14" t="str">
+      <c r="G2" s="9" t="str">
         <f>contact_perimeter_flag!G2</f>
         <v>Z_JACKET_2</v>
       </c>
-      <c r="H2" s="14" t="str">
+      <c r="H2" s="9" t="str">
         <f>contact_perimeter_flag!H2</f>
         <v>Z_JACKET_3</v>
       </c>
-      <c r="I2" s="14" t="str">
+      <c r="I2" s="9" t="str">
         <f>contact_perimeter_flag!I2</f>
         <v>Z_JACKET_4</v>
       </c>
-      <c r="J2" s="14" t="str">
+      <c r="J2" s="9" t="str">
         <f>contact_perimeter_flag!J2</f>
         <v>Z_JACKET_5</v>
       </c>
-      <c r="K2" s="14" t="str">
+      <c r="K2" s="9" t="str">
         <f>contact_perimeter_flag!K2</f>
         <v>Z_JACKET_6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="str">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="str">
         <f>B2</f>
         <v>Environment</v>
       </c>
-      <c r="B3" s="11">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1">
@@ -2699,24 +4070,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="str">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="str">
         <f>C2</f>
         <v>CHAN_1</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
         <v>0</v>
       </c>
       <c r="G4" s="1">
@@ -2735,12 +4106,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="str">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="str">
         <f>D2</f>
         <v>CHAN_2</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5" s="1">
@@ -2749,10 +4120,10 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
         <v>0</v>
       </c>
       <c r="G5" s="1">
@@ -2771,12 +4142,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="str">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="str">
         <f>E2</f>
         <v>STR_STAB_1</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" s="1">
@@ -2788,7 +4159,7 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>0</v>
       </c>
       <c r="G6" s="1">
@@ -2807,12 +4178,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="str">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="str">
         <f>F2</f>
         <v>Z_JACKET_1</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="1">
         <v>0</v>
       </c>
       <c r="C7" s="1">
@@ -2843,12 +4214,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="str">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="str">
         <f>contact_perimeter_flag!A8</f>
         <v>Z_JACKET_2</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="1">
         <v>0</v>
       </c>
       <c r="C8" s="1">
@@ -2879,12 +4250,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="str">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="str">
         <f>contact_perimeter_flag!A9</f>
         <v>Z_JACKET_3</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="1">
         <v>0</v>
       </c>
       <c r="C9" s="1">
@@ -2915,12 +4286,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="str">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="str">
         <f>contact_perimeter_flag!A10</f>
         <v>Z_JACKET_4</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="1">
         <v>0</v>
       </c>
       <c r="C10" s="1">
@@ -2951,12 +4322,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="str">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="str">
         <f>contact_perimeter_flag!A11</f>
         <v>Z_JACKET_5</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="1">
         <v>0</v>
       </c>
       <c r="C11" s="1">
@@ -2987,12 +4358,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="str">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="str">
         <f>contact_perimeter_flag!A12</f>
         <v>Z_JACKET_6</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="1">
         <v>0</v>
       </c>
       <c r="C12" s="1">
@@ -3174,6 +4545,429 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E61DE8-A1F0-4E81-B0F1-B3ACA8100EA8}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="str">
+        <f>contact_perimeter_flag!B2</f>
+        <v>Environment</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f>contact_perimeter_flag!C2</f>
+        <v>CHAN_1</v>
+      </c>
+      <c r="D2" s="4" t="str">
+        <f>contact_perimeter_flag!D2</f>
+        <v>CHAN_2</v>
+      </c>
+      <c r="E2" s="4" t="str">
+        <f>contact_perimeter_flag!E2</f>
+        <v>STR_STAB_1</v>
+      </c>
+      <c r="F2" s="4" t="str">
+        <f>contact_perimeter_flag!F2</f>
+        <v>Z_JACKET_1</v>
+      </c>
+      <c r="G2" s="4" t="str">
+        <f>contact_perimeter_flag!G2</f>
+        <v>Z_JACKET_2</v>
+      </c>
+      <c r="H2" s="4" t="str">
+        <f>contact_perimeter_flag!H2</f>
+        <v>Z_JACKET_3</v>
+      </c>
+      <c r="I2" s="4" t="str">
+        <f>contact_perimeter_flag!I2</f>
+        <v>Z_JACKET_4</v>
+      </c>
+      <c r="J2" s="4" t="str">
+        <f>contact_perimeter_flag!J2</f>
+        <v>Z_JACKET_5</v>
+      </c>
+      <c r="K2" s="4" t="str">
+        <f>contact_perimeter_flag!K2</f>
+        <v>Z_JACKET_6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="str">
+        <f>B2</f>
+        <v>Environment</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="str">
+        <f>C2</f>
+        <v>CHAN_1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="str">
+        <f>D2</f>
+        <v>CHAN_2</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="str">
+        <f>E2</f>
+        <v>STR_STAB_1</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="str">
+        <f>F2</f>
+        <v>Z_JACKET_1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="str">
+        <f>G2</f>
+        <v>Z_JACKET_2</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="str">
+        <f>H2</f>
+        <v>Z_JACKET_3</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="str">
+        <f>I2</f>
+        <v>Z_JACKET_4</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="str">
+        <f>J2</f>
+        <v>Z_JACKET_5</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="str">
+        <f>K2</f>
+        <v>Z_JACKET_6</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DF123C-7F60-4807-AE29-ECD4FCE24EA7}">
   <dimension ref="A1:K12"/>
   <sheetViews>
@@ -3181,82 +4975,82 @@
       <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="5" t="str">
+      <c r="B2" s="4" t="str">
         <f>contact_perimeter_flag!B2</f>
         <v>Environment</v>
       </c>
-      <c r="C2" s="5" t="str">
+      <c r="C2" s="4" t="str">
         <f>contact_perimeter_flag!C2</f>
         <v>CHAN_1</v>
       </c>
-      <c r="D2" s="5" t="str">
+      <c r="D2" s="4" t="str">
         <f>contact_perimeter_flag!D2</f>
         <v>CHAN_2</v>
       </c>
-      <c r="E2" s="5" t="str">
+      <c r="E2" s="4" t="str">
         <f>contact_perimeter_flag!E2</f>
         <v>STR_STAB_1</v>
       </c>
-      <c r="F2" s="5" t="str">
+      <c r="F2" s="4" t="str">
         <f>contact_perimeter_flag!F2</f>
         <v>Z_JACKET_1</v>
       </c>
-      <c r="G2" s="14" t="str">
+      <c r="G2" s="9" t="str">
         <f>contact_perimeter_flag!G2</f>
         <v>Z_JACKET_2</v>
       </c>
-      <c r="H2" s="14" t="str">
+      <c r="H2" s="9" t="str">
         <f>contact_perimeter_flag!H2</f>
         <v>Z_JACKET_3</v>
       </c>
-      <c r="I2" s="14" t="str">
+      <c r="I2" s="9" t="str">
         <f>contact_perimeter_flag!I2</f>
         <v>Z_JACKET_4</v>
       </c>
-      <c r="J2" s="14" t="str">
+      <c r="J2" s="9" t="str">
         <f>contact_perimeter_flag!J2</f>
         <v>Z_JACKET_5</v>
       </c>
-      <c r="K2" s="14" t="str">
+      <c r="K2" s="9" t="str">
         <f>contact_perimeter_flag!K2</f>
         <v>Z_JACKET_6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="str">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="str">
         <f>B2</f>
         <v>Environment</v>
       </c>
-      <c r="B3" s="11">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1">
@@ -3275,24 +5069,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="str">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="str">
         <f>C2</f>
         <v>CHAN_1</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
         <v>1</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>1</v>
       </c>
       <c r="G4" s="1">
@@ -3311,12 +5105,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="str">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="str">
         <f>D2</f>
         <v>CHAN_2</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5" s="1">
@@ -3325,10 +5119,10 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
         <v>0</v>
       </c>
       <c r="G5" s="1">
@@ -3347,12 +5141,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="str">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="str">
         <f>E2</f>
         <v>STR_STAB_1</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" s="1">
@@ -3364,7 +5158,7 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>0</v>
       </c>
       <c r="G6" s="1">
@@ -3383,12 +5177,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="str">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="str">
         <f>F2</f>
         <v>Z_JACKET_1</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="1">
         <v>0</v>
       </c>
       <c r="C7" s="1">
@@ -3419,12 +5213,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="str">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="str">
         <f>contact_perimeter_flag!A8</f>
         <v>Z_JACKET_2</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="1">
         <v>0</v>
       </c>
       <c r="C8" s="1">
@@ -3455,12 +5249,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="str">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="str">
         <f>contact_perimeter_flag!A9</f>
         <v>Z_JACKET_3</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="1">
         <v>0</v>
       </c>
       <c r="C9" s="1">
@@ -3491,12 +5285,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="str">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="str">
         <f>contact_perimeter_flag!A10</f>
         <v>Z_JACKET_4</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="1">
         <v>0</v>
       </c>
       <c r="C10" s="1">
@@ -3527,12 +5321,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="str">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="str">
         <f>contact_perimeter_flag!A11</f>
         <v>Z_JACKET_5</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="1">
         <v>0</v>
       </c>
       <c r="C11" s="1">
@@ -3563,12 +5357,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="str">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="str">
         <f>contact_perimeter_flag!A12</f>
         <v>Z_JACKET_6</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="1">
         <v>0</v>
       </c>
       <c r="C12" s="1">
@@ -3749,7 +5543,863 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAD6A28-3622-44C8-9C51-A4A192990049}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="str">
+        <f>contact_perimeter_flag!B2</f>
+        <v>Environment</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f>contact_perimeter_flag!C2</f>
+        <v>CHAN_1</v>
+      </c>
+      <c r="D2" s="4" t="str">
+        <f>contact_perimeter_flag!D2</f>
+        <v>CHAN_2</v>
+      </c>
+      <c r="E2" s="4" t="str">
+        <f>contact_perimeter_flag!E2</f>
+        <v>STR_STAB_1</v>
+      </c>
+      <c r="F2" s="4" t="str">
+        <f>contact_perimeter_flag!F2</f>
+        <v>Z_JACKET_1</v>
+      </c>
+      <c r="G2" s="4" t="str">
+        <f>contact_perimeter_flag!G2</f>
+        <v>Z_JACKET_2</v>
+      </c>
+      <c r="H2" s="4" t="str">
+        <f>contact_perimeter_flag!H2</f>
+        <v>Z_JACKET_3</v>
+      </c>
+      <c r="I2" s="4" t="str">
+        <f>contact_perimeter_flag!I2</f>
+        <v>Z_JACKET_4</v>
+      </c>
+      <c r="J2" s="4" t="str">
+        <f>contact_perimeter_flag!J2</f>
+        <v>Z_JACKET_5</v>
+      </c>
+      <c r="K2" s="4" t="str">
+        <f>contact_perimeter_flag!K2</f>
+        <v>Z_JACKET_6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="str">
+        <f>B2</f>
+        <v>Environment</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="str">
+        <f>C2</f>
+        <v>CHAN_1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="str">
+        <f>D2</f>
+        <v>CHAN_2</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="str">
+        <f>E2</f>
+        <v>STR_STAB_1</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="str">
+        <f>F2</f>
+        <v>Z_JACKET_1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="str">
+        <f>G2</f>
+        <v>Z_JACKET_2</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="str">
+        <f>H2</f>
+        <v>Z_JACKET_3</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="str">
+        <f>I2</f>
+        <v>Z_JACKET_4</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="str">
+        <f>J2</f>
+        <v>Z_JACKET_5</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="str">
+        <f>K2</f>
+        <v>Z_JACKET_6</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5BF735-BC8F-4B85-A299-67FC1575CEC3}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="str">
+        <f>contact_perimeter_flag!B2</f>
+        <v>Environment</v>
+      </c>
+      <c r="C2" s="4" t="str">
+        <f>contact_perimeter_flag!C2</f>
+        <v>CHAN_1</v>
+      </c>
+      <c r="D2" s="4" t="str">
+        <f>contact_perimeter_flag!D2</f>
+        <v>CHAN_2</v>
+      </c>
+      <c r="E2" s="4" t="str">
+        <f>contact_perimeter_flag!E2</f>
+        <v>STR_STAB_1</v>
+      </c>
+      <c r="F2" s="4" t="str">
+        <f>contact_perimeter_flag!F2</f>
+        <v>Z_JACKET_1</v>
+      </c>
+      <c r="G2" s="4" t="str">
+        <f>contact_perimeter_flag!G2</f>
+        <v>Z_JACKET_2</v>
+      </c>
+      <c r="H2" s="4" t="str">
+        <f>contact_perimeter_flag!H2</f>
+        <v>Z_JACKET_3</v>
+      </c>
+      <c r="I2" s="4" t="str">
+        <f>contact_perimeter_flag!I2</f>
+        <v>Z_JACKET_4</v>
+      </c>
+      <c r="J2" s="4" t="str">
+        <f>contact_perimeter_flag!J2</f>
+        <v>Z_JACKET_5</v>
+      </c>
+      <c r="K2" s="4" t="str">
+        <f>contact_perimeter_flag!K2</f>
+        <v>Z_JACKET_6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="str">
+        <f>B2</f>
+        <v>Environment</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="str">
+        <f>C2</f>
+        <v>CHAN_1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="str">
+        <f>D2</f>
+        <v>CHAN_2</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="str">
+        <f>E2</f>
+        <v>STR_STAB_1</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="str">
+        <f>F2</f>
+        <v>Z_JACKET_1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="str">
+        <f>G2</f>
+        <v>Z_JACKET_2</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="str">
+        <f>H2</f>
+        <v>Z_JACKET_3</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="str">
+        <f>I2</f>
+        <v>Z_JACKET_4</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="str">
+        <f>J2</f>
+        <v>Z_JACKET_5</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="str">
+        <f>K2</f>
+        <v>Z_JACKET_6</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B35E1EA-762F-42F4-ACD0-F98E1885F191}">
   <dimension ref="A1:K12"/>
   <sheetViews>
@@ -3757,112 +6407,112 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="5" t="str">
+      <c r="B2" s="4" t="str">
         <f>contact_perimeter_flag!B2</f>
         <v>Environment</v>
       </c>
-      <c r="C2" s="5" t="str">
+      <c r="C2" s="4" t="str">
         <f>contact_perimeter_flag!C2</f>
         <v>CHAN_1</v>
       </c>
-      <c r="D2" s="5" t="str">
+      <c r="D2" s="4" t="str">
         <f>contact_perimeter_flag!D2</f>
         <v>CHAN_2</v>
       </c>
-      <c r="E2" s="5" t="str">
+      <c r="E2" s="4" t="str">
         <f>contact_perimeter_flag!E2</f>
         <v>STR_STAB_1</v>
       </c>
-      <c r="F2" s="5" t="str">
+      <c r="F2" s="4" t="str">
         <f>contact_perimeter_flag!F2</f>
         <v>Z_JACKET_1</v>
       </c>
-      <c r="G2" s="5" t="str">
+      <c r="G2" s="4" t="str">
         <f>contact_perimeter_flag!G2</f>
         <v>Z_JACKET_2</v>
       </c>
-      <c r="H2" s="5" t="str">
+      <c r="H2" s="4" t="str">
         <f>contact_perimeter_flag!H2</f>
         <v>Z_JACKET_3</v>
       </c>
-      <c r="I2" s="5" t="str">
+      <c r="I2" s="4" t="str">
         <f>contact_perimeter_flag!I2</f>
         <v>Z_JACKET_4</v>
       </c>
-      <c r="J2" s="5" t="str">
+      <c r="J2" s="4" t="str">
         <f>contact_perimeter_flag!J2</f>
         <v>Z_JACKET_5</v>
       </c>
-      <c r="K2" s="5" t="str">
+      <c r="K2" s="4" t="str">
         <f>contact_perimeter_flag!K2</f>
         <v>Z_JACKET_6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="str">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="str">
         <f>B2</f>
         <v>Environment</v>
       </c>
-      <c r="B3" s="11">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11">
-        <v>0</v>
-      </c>
-      <c r="K3" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="str">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="str">
         <f>C2</f>
         <v>CHAN_1</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>0</v>
       </c>
       <c r="E4" s="1">
@@ -3887,18 +6537,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="str">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="str">
         <f>D2</f>
         <v>CHAN_2</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>0</v>
       </c>
       <c r="E5" s="1">
@@ -3923,12 +6573,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="str">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="str">
         <f>E2</f>
         <v>STR_STAB_1</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" s="1">
@@ -3959,12 +6609,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="str">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="str">
         <f>F2</f>
         <v>Z_JACKET_1</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="1">
         <v>0</v>
       </c>
       <c r="C7" s="1">
@@ -3997,12 +6647,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="str">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="str">
         <f>contact_perimeter_flag!A8</f>
         <v>Z_JACKET_2</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1">
@@ -4035,12 +6685,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="str">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="str">
         <f>contact_perimeter_flag!A9</f>
         <v>Z_JACKET_3</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="1">
         <v>2</v>
       </c>
       <c r="C9" s="1">
@@ -4073,12 +6723,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="str">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="str">
         <f>contact_perimeter_flag!A10</f>
         <v>Z_JACKET_4</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="1">
         <v>3</v>
       </c>
       <c r="C10" s="1">
@@ -4111,12 +6761,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="str">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="str">
         <f>contact_perimeter_flag!A11</f>
         <v>Z_JACKET_5</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="1">
         <v>4</v>
       </c>
       <c r="C11" s="1">
@@ -4149,12 +6799,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="str">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="str">
         <f>contact_perimeter_flag!A12</f>
         <v>Z_JACKET_6</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="1">
         <v>5</v>
       </c>
       <c r="C12" s="1">
@@ -4220,1380 +6870,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182F8F7F-A8D7-4239-AF85-1CCD06F5862A}">
-  <dimension ref="A1:K12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.90625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="5" t="str">
-        <f>contact_perimeter_flag!B2</f>
-        <v>Environment</v>
-      </c>
-      <c r="C2" s="5" t="str">
-        <f>contact_perimeter_flag!C2</f>
-        <v>CHAN_1</v>
-      </c>
-      <c r="D2" s="5" t="str">
-        <f>contact_perimeter_flag!D2</f>
-        <v>CHAN_2</v>
-      </c>
-      <c r="E2" s="5" t="str">
-        <f>contact_perimeter_flag!E2</f>
-        <v>STR_STAB_1</v>
-      </c>
-      <c r="F2" s="5" t="str">
-        <f>contact_perimeter_flag!F2</f>
-        <v>Z_JACKET_1</v>
-      </c>
-      <c r="G2" s="14" t="str">
-        <f>contact_perimeter_flag!G2</f>
-        <v>Z_JACKET_2</v>
-      </c>
-      <c r="H2" s="14" t="str">
-        <f>contact_perimeter_flag!H2</f>
-        <v>Z_JACKET_3</v>
-      </c>
-      <c r="I2" s="14" t="str">
-        <f>contact_perimeter_flag!I2</f>
-        <v>Z_JACKET_4</v>
-      </c>
-      <c r="J2" s="14" t="str">
-        <f>contact_perimeter_flag!J2</f>
-        <v>Z_JACKET_5</v>
-      </c>
-      <c r="K2" s="14" t="str">
-        <f>contact_perimeter_flag!K2</f>
-        <v>Z_JACKET_6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="str">
-        <f>B2</f>
-        <v>Environment</v>
-      </c>
-      <c r="B3" s="11">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11">
-        <v>0</v>
-      </c>
-      <c r="K3" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="str">
-        <f>C2</f>
-        <v>CHAN_1</v>
-      </c>
-      <c r="B4" s="11">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="str">
-        <f>D2</f>
-        <v>CHAN_2</v>
-      </c>
-      <c r="B5" s="11">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="str">
-        <f>E2</f>
-        <v>STR_STAB_1</v>
-      </c>
-      <c r="B6" s="11">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="str">
-        <f>F2</f>
-        <v>Z_JACKET_1</v>
-      </c>
-      <c r="B7" s="11">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="str">
-        <f>contact_perimeter_flag!A8</f>
-        <v>Z_JACKET_2</v>
-      </c>
-      <c r="B8" s="11">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="str">
-        <f>contact_perimeter_flag!A9</f>
-        <v>Z_JACKET_3</v>
-      </c>
-      <c r="B9" s="11">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="str">
-        <f>contact_perimeter_flag!A10</f>
-        <v>Z_JACKET_4</v>
-      </c>
-      <c r="B10" s="11">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="str">
-        <f>contact_perimeter_flag!A11</f>
-        <v>Z_JACKET_5</v>
-      </c>
-      <c r="B11" s="11">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="str">
-        <f>contact_perimeter_flag!A12</f>
-        <v>Z_JACKET_6</v>
-      </c>
-      <c r="B12" s="11">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{11073E0C-B0B4-4CCC-ADAF-F7C7AD75C766}">
-            <xm:f>contact_perimeter_flag!$D$4=0</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFFF00"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="2" id="{D8D42210-C82D-40ED-B579-6A74980D2860}">
-            <xm:f>contact_perimeter_flag!$D$4=1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>D4</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF3B1F8-15BE-471B-8C90-C91254905B72}">
-  <dimension ref="A1:K12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.90625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="5" t="str">
-        <f>contact_perimeter_flag!B2</f>
-        <v>Environment</v>
-      </c>
-      <c r="C2" s="5" t="str">
-        <f>contact_perimeter_flag!C2</f>
-        <v>CHAN_1</v>
-      </c>
-      <c r="D2" s="5" t="str">
-        <f>contact_perimeter_flag!D2</f>
-        <v>CHAN_2</v>
-      </c>
-      <c r="E2" s="5" t="str">
-        <f>contact_perimeter_flag!E2</f>
-        <v>STR_STAB_1</v>
-      </c>
-      <c r="F2" s="5" t="str">
-        <f>contact_perimeter_flag!F2</f>
-        <v>Z_JACKET_1</v>
-      </c>
-      <c r="G2" s="14" t="str">
-        <f>contact_perimeter_flag!G2</f>
-        <v>Z_JACKET_2</v>
-      </c>
-      <c r="H2" s="14" t="str">
-        <f>contact_perimeter_flag!H2</f>
-        <v>Z_JACKET_3</v>
-      </c>
-      <c r="I2" s="14" t="str">
-        <f>contact_perimeter_flag!I2</f>
-        <v>Z_JACKET_4</v>
-      </c>
-      <c r="J2" s="14" t="str">
-        <f>contact_perimeter_flag!J2</f>
-        <v>Z_JACKET_5</v>
-      </c>
-      <c r="K2" s="14" t="str">
-        <f>contact_perimeter_flag!K2</f>
-        <v>Z_JACKET_6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="str">
-        <f>B2</f>
-        <v>Environment</v>
-      </c>
-      <c r="B3" s="11">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11">
-        <v>0</v>
-      </c>
-      <c r="K3" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="str">
-        <f>C2</f>
-        <v>CHAN_1</v>
-      </c>
-      <c r="B4" s="11">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="str">
-        <f>D2</f>
-        <v>CHAN_2</v>
-      </c>
-      <c r="B5" s="11">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="str">
-        <f>E2</f>
-        <v>STR_STAB_1</v>
-      </c>
-      <c r="B6" s="11">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="str">
-        <f>F2</f>
-        <v>Z_JACKET_1</v>
-      </c>
-      <c r="B7" s="11">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="str">
-        <f>contact_perimeter_flag!A8</f>
-        <v>Z_JACKET_2</v>
-      </c>
-      <c r="B8" s="11">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="str">
-        <f>contact_perimeter_flag!A9</f>
-        <v>Z_JACKET_3</v>
-      </c>
-      <c r="B9" s="11">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="str">
-        <f>contact_perimeter_flag!A10</f>
-        <v>Z_JACKET_4</v>
-      </c>
-      <c r="B10" s="11">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="str">
-        <f>contact_perimeter_flag!A11</f>
-        <v>Z_JACKET_5</v>
-      </c>
-      <c r="B11" s="11">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="str">
-        <f>contact_perimeter_flag!A12</f>
-        <v>Z_JACKET_6</v>
-      </c>
-      <c r="B12" s="11">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{375370F1-6A9D-44F9-97E7-5F19EF16D901}">
-            <xm:f>contact_perimeter_flag!$D$4=0</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFFF00"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="2" id="{D8851FDB-4F41-4BDA-A3BC-4D0318F65BF8}">
-            <xm:f>contact_perimeter_flag!$D$4=1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>D4</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C628F5-9BDA-4746-9BD5-872CA60F8FA3}">
-  <dimension ref="A1:K12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B2" s="13" t="str">
-        <f>contact_perimeter_flag!B2</f>
-        <v>Environment</v>
-      </c>
-      <c r="C2" s="13" t="str">
-        <f>contact_perimeter_flag!C2</f>
-        <v>CHAN_1</v>
-      </c>
-      <c r="D2" s="13" t="str">
-        <f>contact_perimeter_flag!D2</f>
-        <v>CHAN_2</v>
-      </c>
-      <c r="E2" s="13" t="str">
-        <f>contact_perimeter_flag!E2</f>
-        <v>STR_STAB_1</v>
-      </c>
-      <c r="F2" s="13" t="str">
-        <f>contact_perimeter_flag!F2</f>
-        <v>Z_JACKET_1</v>
-      </c>
-      <c r="G2" s="13" t="str">
-        <f>contact_perimeter_flag!G2</f>
-        <v>Z_JACKET_2</v>
-      </c>
-      <c r="H2" s="13" t="str">
-        <f>contact_perimeter_flag!H2</f>
-        <v>Z_JACKET_3</v>
-      </c>
-      <c r="I2" s="13" t="str">
-        <f>contact_perimeter_flag!I2</f>
-        <v>Z_JACKET_4</v>
-      </c>
-      <c r="J2" s="13" t="str">
-        <f>contact_perimeter_flag!J2</f>
-        <v>Z_JACKET_5</v>
-      </c>
-      <c r="K2" s="13" t="str">
-        <f>contact_perimeter_flag!K2</f>
-        <v>Z_JACKET_6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="str">
-        <f>B2</f>
-        <v>Environment</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="str">
-        <f>C2</f>
-        <v>CHAN_1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="str">
-        <f>D2</f>
-        <v>CHAN_2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="str">
-        <f>E2</f>
-        <v>STR_STAB_1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="str">
-        <f>F2</f>
-        <v>Z_JACKET_1</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="17">
-        <v>0</v>
-      </c>
-      <c r="G7" s="17">
-        <v>1</v>
-      </c>
-      <c r="H7" s="17">
-        <v>0</v>
-      </c>
-      <c r="I7" s="17">
-        <v>0</v>
-      </c>
-      <c r="J7" s="17">
-        <v>0</v>
-      </c>
-      <c r="K7" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="str">
-        <f>contact_perimeter_flag!A8</f>
-        <v>Z_JACKET_2</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="17">
-        <v>0</v>
-      </c>
-      <c r="G8" s="17">
-        <v>0</v>
-      </c>
-      <c r="H8" s="17">
-        <v>1</v>
-      </c>
-      <c r="I8" s="17">
-        <v>0</v>
-      </c>
-      <c r="J8" s="17">
-        <v>0</v>
-      </c>
-      <c r="K8" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="str">
-        <f>contact_perimeter_flag!A9</f>
-        <v>Z_JACKET_3</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="17">
-        <v>0</v>
-      </c>
-      <c r="G9" s="17">
-        <v>0</v>
-      </c>
-      <c r="H9" s="17">
-        <v>0</v>
-      </c>
-      <c r="I9" s="17">
-        <v>0</v>
-      </c>
-      <c r="J9" s="17">
-        <v>0</v>
-      </c>
-      <c r="K9" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="str">
-        <f>contact_perimeter_flag!A10</f>
-        <v>Z_JACKET_4</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="17">
-        <v>0</v>
-      </c>
-      <c r="G10" s="17">
-        <v>0</v>
-      </c>
-      <c r="H10" s="17">
-        <v>0</v>
-      </c>
-      <c r="I10" s="17">
-        <v>0</v>
-      </c>
-      <c r="J10" s="17">
-        <v>1</v>
-      </c>
-      <c r="K10" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="str">
-        <f>contact_perimeter_flag!A11</f>
-        <v>Z_JACKET_5</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="17">
-        <v>0</v>
-      </c>
-      <c r="G11" s="17">
-        <v>0</v>
-      </c>
-      <c r="H11" s="17">
-        <v>0</v>
-      </c>
-      <c r="I11" s="17">
-        <v>0</v>
-      </c>
-      <c r="J11" s="17">
-        <v>0</v>
-      </c>
-      <c r="K11" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="str">
-        <f>contact_perimeter_flag!A12</f>
-        <v>Z_JACKET_6</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="17">
-        <v>0</v>
-      </c>
-      <c r="G12" s="17">
-        <v>0</v>
-      </c>
-      <c r="H12" s="17">
-        <v>0</v>
-      </c>
-      <c r="I12" s="17">
-        <v>0</v>
-      </c>
-      <c r="J12" s="17">
-        <v>0</v>
-      </c>
-      <c r="K12" s="17">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>